--- a/public/Excel_example/stu/foreign_stu.xlsx
+++ b/public/Excel_example/stu/foreign_stu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,64 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>單位名稱</t>
+  </si>
+  <si>
+    <t>系所部門</t>
+  </si>
+  <si>
+    <t>身分</t>
+  </si>
+  <si>
+    <t>開始時間</t>
+  </si>
+  <si>
+    <t>結束時間</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>學號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +94,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +187,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +395,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/Excel_example/stu/foreign_stu.xlsx
+++ b/public/Excel_example/stu/foreign_stu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>單位名稱</t>
   </si>
@@ -46,7 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>國籍</t>
+    <t>中文國籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文國籍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,12 +431,15 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/public/Excel_example/stu/foreign_stu.xlsx
+++ b/public/Excel_example/stu/foreign_stu.xlsx
@@ -14,51 +14,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>單位名稱</t>
-  </si>
-  <si>
-    <t>系所部門</t>
-  </si>
-  <si>
-    <t>身分</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所屬一級</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>單位</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所屬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系所部門</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>學號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分 (學士、碩士或博士班）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>國籍(中文)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>國籍(英文)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>開始時間</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>結束時間</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>籍</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狀態</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-  </si>
-  <si>
-    <t>學號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文國籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文國籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,6 +152,40 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -94,8 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -400,47 +522,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/Excel_example/stu/foreign_stu.xlsx
+++ b/public/Excel_example/stu/foreign_stu.xlsx
@@ -524,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -532,7 +532,13 @@
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/Excel_example/stu/foreign_stu.xlsx
+++ b/public/Excel_example/stu/foreign_stu.xlsx
@@ -16,131 +16,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>所屬一級</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>單位</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>所屬</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>系所部門</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>學號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中文姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>英文姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身分 (學士、碩士或博士班）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>國籍(中文)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>國籍(英文)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>開始時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>結束時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>學</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>籍</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>狀態</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分(學士、碩士或博士班）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬系所部門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>學籍狀態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬一級單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,24 +84,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
@@ -183,7 +93,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -212,12 +128,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -522,13 +436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M11" sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
@@ -541,43 +455,194 @@
     <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/Excel_example/stu/foreign_stu.xlsx
+++ b/public/Excel_example/stu/foreign_stu.xlsx
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M11" sqref="A1:M11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -492,7 +492,6 @@
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2"/>

--- a/public/Excel_example/stu/foreign_stu.xlsx
+++ b/public/Excel_example/stu/foreign_stu.xlsx
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -455,7 +455,7 @@
     <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -493,155 +493,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/Excel_example/stu/foreign_stu.xlsx
+++ b/public/Excel_example/stu/foreign_stu.xlsx
@@ -68,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,13 +98,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,12 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -436,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
@@ -455,7 +447,7 @@
     <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -492,36 +484,6 @@
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/Excel_example/stu/foreign_stu.xlsx
+++ b/public/Excel_example/stu/foreign_stu.xlsx
@@ -48,10 +48,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>身分(學士、碩士或博士班）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>所屬系所部門</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -61,6 +57,10 @@
   </si>
   <si>
     <t>所屬一級單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分(學士、碩士或博士）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +431,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -449,10 +449,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>

--- a/public/Excel_example/stu/foreign_stu.xlsx
+++ b/public/Excel_example/stu/foreign_stu.xlsx
@@ -52,15 +52,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>學籍狀態</t>
+    <t>身分(學士、碩士或博士）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>學籍狀態(在學中、休學中、已畢業)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所屬一級單位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身分(學士、碩士或博士）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +431,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -444,12 +444,12 @@
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
